--- a/biology/Médecine/Texas_Medication_Algorithm_Project/Texas_Medication_Algorithm_Project.xlsx
+++ b/biology/Médecine/Texas_Medication_Algorithm_Project/Texas_Medication_Algorithm_Project.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 George W. Bush, alors qu'il était gouverneur du Texas, a proposé de promouvoir les programmes de diagnostic de troubles mentaux et de prescription des nouvelles générations d'antidépresseurs.
-Il a ainsi lancé la New Freedom Commission on Mental Health, en avril 2002, dont l'objectif était de réaliser une étude sur le système délivrant des soins en psychiatrie aux États-Unis et d'énoncer un certain nombre de recommandations[1].
-À la suite des recommandations de cette commission formulées en juillet 2003, George W. Bush a encouragé le diagnostic des troubles mentaux au sein de la population du Texas, y compris chez les enfants de bas âge. (puisque d'après cette commission, les écoles constituaient des institutions clés pour diagnostiquer les troubles affectifs et comportementaux de 52 millions d'étudiants et 6 millions d'adultes travaillant dans le milieu éducatif) et mis en place le Texas Medication Algorithm Project (TMAP). Ce Texas Project a surtout visé à encourager les prescriptions plus coûteuses des nouvelles générations d'antidépresseurs[1].
+Il a ainsi lancé la New Freedom Commission on Mental Health, en avril 2002, dont l'objectif était de réaliser une étude sur le système délivrant des soins en psychiatrie aux États-Unis et d'énoncer un certain nombre de recommandations.
+À la suite des recommandations de cette commission formulées en juillet 2003, George W. Bush a encouragé le diagnostic des troubles mentaux au sein de la population du Texas, y compris chez les enfants de bas âge. (puisque d'après cette commission, les écoles constituaient des institutions clés pour diagnostiquer les troubles affectifs et comportementaux de 52 millions d'étudiants et 6 millions d'adultes travaillant dans le milieu éducatif) et mis en place le Texas Medication Algorithm Project (TMAP). Ce Texas Project a surtout visé à encourager les prescriptions plus coûteuses des nouvelles générations d'antidépresseurs.
 </t>
         </is>
       </c>
